--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>006652</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>富国金融地产行业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011124</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国金融地产行业混合C</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005209</t>
+          <t>005403</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴双三角股票A</t>
+          <t>南方融尚再融资主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005210</t>
+          <t>005209</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴双三角股票C</t>
+          <t>东吴双三角股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.05</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005403</t>
+          <t>005210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方融尚再融资主题精选灵活配置混合</t>
+          <t>东吴双三角股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.57</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006652</t>
+          <t>011124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国金融地产行业混合A</t>
+          <t>富国金融地产行业混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>85.18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.46</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004560</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安丰益灵活配置混合A</t>
+          <t>安信灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004561</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰益灵活配置混合C</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.68</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>77.30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>010461</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信灵活配置混合</t>
+          <t>民生加银康利混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.64</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +986,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>52.20</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007244</t>
+          <t>003059</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合C</t>
+          <t>长信先利半年定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010461</t>
+          <t>004560</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银康利混合</t>
+          <t>汇安丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>004561</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>汇安丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003059</t>
+          <t>007244</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长信先利半年定期开放混合A</t>
+          <t>安信核心竞争力灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -994,17 +1174,21 @@
           <t>长信先利半年定期开放混合C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1174,7 +1175,6 @@
           <t>长信先利半年定期开放混合C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>29.00</t>
@@ -1190,6 +1190,138 @@
       </c>
       <c r="H12" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1327,4 +1328,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1460,4 +1461,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,7 +1470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1480,17 +1481,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1500,14 +1521,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1516,14 +1559,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -1532,14 +1665,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -1548,13 +1681,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,281 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006652</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005403</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方融尚再融资主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
+      <c r="D6" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -739,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -790,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信灵活配置混合</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.64</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3807</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -828,371 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1332</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0962</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005587</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0701</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010461</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银康利混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信核心竞争力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>52.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003059</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信先利半年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004560</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安丰益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004561</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007244</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信核心竞争力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>52.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008041</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信先利半年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1257,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2184</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1295,36 +792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0638</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1389,36 +886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>27.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.2184</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1427,36 +924,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0638</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,7 +988,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1521,36 +1018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005960</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时量化价值股票A</t>
+          <t>安信灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>77.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.3807</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1559,36 +1056,371 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005961</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时量化价值股票C</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003059</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1602,112 +1434,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
+          <t>005403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方融尚再融资主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.72</v>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.12</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005960</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时量化价值股票A</t>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0555</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005961</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时量化价值股票C</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -792,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -886,36 +979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2184</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -924,36 +1017,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0638</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -962,6 +1055,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1428,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601577-长沙银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -783,138 +1160,6 @@
       </c>
       <c r="H5" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1194,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -979,36 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1017,36 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1111,36 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2184</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1149,36 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0638</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1187,6 +1432,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1653,7 +2030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
